--- a/FPR1120-NGFW-K9.xlsx
+++ b/FPR1120-NGFW-K9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54BB95-31CE-419D-A5DF-F4098F3251F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBDDDC-FC0F-4C3F-A131-9C73E74D5A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Giao diện</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>1.2 Gbps</t>
-  </si>
-  <si>
-    <t>Maximum VPN Peers</t>
   </si>
   <si>
     <t>Tích hợp ổ cứng</t>
@@ -92,21 +89,6 @@
     <t>Lọc URL: số lượng URL được phân loại</t>
   </si>
   <si>
-    <t>Thông lượng Stateful inspection firewall throughput</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall throughput (multiprotocol)</t>
-  </si>
-  <si>
-    <t>Kết nối tường lửa đồng thời</t>
-  </si>
-  <si>
-    <t>Kết nối mới mỗi giây</t>
-  </si>
-  <si>
-    <t>Thông lượng IPsec VPN throughput (450B UDP L2L test)</t>
-  </si>
-  <si>
     <t>Quản lý cục bộ, dựa trên web để triển khai ở quy mô nhỏ</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>2.3 Gbps</t>
   </si>
   <si>
-    <t>2.5 Gbps</t>
-  </si>
-  <si>
     <t>200K</t>
   </si>
   <si>
@@ -140,12 +119,6 @@
   </si>
   <si>
     <t>2.6 Gbps</t>
-  </si>
-  <si>
-    <t>4.5 Gbps</t>
-  </si>
-  <si>
-    <t>1 Gbps</t>
   </si>
   <si>
     <t>8 x 1000BASE-T
@@ -310,14 +283,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,8 +304,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15083,11 +15053,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15097,251 +15065,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>41</v>
+      <c r="A1" s="3" t="s">
+        <v>32</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>42</v>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
+    <row r="14" spans="1:3" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>35</v>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>20</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
+    <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
       </c>
-      <c r="C16" s="9">
-        <v>200000</v>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8" t="s">
+    <row r="20" spans="1:3" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>37</v>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>38</v>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FPR1120-NGFW-K9.xlsx
+++ b/FPR1120-NGFW-K9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBDDDC-FC0F-4C3F-A131-9C73E74D5A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264D69C7-DE28-49E4-A5F9-FDB50317E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Lọc URL: số lượng URL được phân loại</t>
-  </si>
-  <si>
-    <t>Quản lý cục bộ, dựa trên web để triển khai ở quy mô nhỏ</t>
   </si>
   <si>
     <t>Tích hợp, đầu vào single AC
@@ -185,6 +182,9 @@
       </rPr>
       <t xml:space="preserve"> Tiêu chuẩn, với thông tin về mối đe dọa IP, URL và DNS</t>
     </r>
+  </si>
+  <si>
+    <t>Web UI, CLI</t>
   </si>
 </sst>
 </file>
@@ -15066,13 +15066,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -15080,14 +15080,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -15097,7 +15097,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15106,7 +15106,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15115,7 +15115,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15124,7 +15124,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15133,7 +15133,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15142,7 +15142,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15169,7 +15169,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15178,7 +15178,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33.6" x14ac:dyDescent="0.25">
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15202,7 +15202,7 @@
     <row r="16" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -15212,7 +15212,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="84" x14ac:dyDescent="0.25">
@@ -15221,7 +15221,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15230,25 +15230,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
